--- a/analysis/data/combine_two_sets.xlsx
+++ b/analysis/data/combine_two_sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Activity_Data\Mancala_github\MancalaGames\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7AB1A-32C5-4FD4-BE8B-7496084117B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCE08B9-326E-4561-A9B8-53EC43DEA567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="945" windowWidth="25410" windowHeight="14265" activeTab="1" xr2:uid="{4AA45649-2FB6-48D7-B86B-F414D714A88A}"/>
+    <workbookView xWindow="2235" yWindow="915" windowWidth="25410" windowHeight="13005" activeTab="1" xr2:uid="{4AA45649-2FB6-48D7-B86B-F414D714A88A}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstRuns" sheetId="2" r:id="rId1"/>
@@ -702,7 +702,227 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1264,15 +1484,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB8DECD-E5A7-4EDB-8D85-8DCBC70BBB34}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1334,77 +1554,74 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R2" s="1"/>
+      <c r="V2">
+        <f>SUM(B2:I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -1721,47 +1938,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L78">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="11" operator="lessThan">
       <formula>8000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O54">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="greaterThan">
       <formula>0.52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P78">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="greaterThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:R78">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="between">
       <formula>0.05</formula>
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="between">
       <formula>0.001</formula>
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:T78">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1772,15 +1989,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF0C7D6-87F1-48CC-A179-AA8823644002}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1842,28 +2059,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="R2" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="V2">
+        <f>SUM(B2:I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R5" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R7" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R10" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R15" s="1"/>
     </row>
     <row r="18" spans="16:18" x14ac:dyDescent="0.25">
@@ -1960,8 +2188,98 @@
       <c r="R75" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S2:T10 S12:T78">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="S4:T10 S12:T78">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+      <formula>8000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O2">
+    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0.48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="greaterThan">
+      <formula>0.52</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="greaterThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="20" stopIfTrue="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:R2">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="between">
+      <formula>0.05</formula>
+      <formula>0.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="between">
+      <formula>0.001</formula>
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:T2">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>8000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:O3">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>0.52</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:R3">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+      <formula>0.05</formula>
+      <formula>0.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
+      <formula>0.001</formula>
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:T3">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1977,7 +2295,7 @@
   <dimension ref="A1:AE85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4:N4 P4:R4 Y4:Z4 AB4:AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11247,47 +11565,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:D79">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:Q79">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThan">
       <formula>0.52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R79">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Z79">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="between">
       <formula>0.05</formula>
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC79">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
